--- a/results/mp/logistic/corona/confidence/42/stop-words-desired-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-desired-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,127 +40,139 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>warning</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>panic</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>drop</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>positive</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>wish</t>
   </si>
   <si>
     <t>relief</t>
@@ -172,112 +184,112 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>create</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>please</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>god</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>kind</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>sure</t>
-  </si>
-  <si>
-    <t>increased</t>
   </si>
 </sst>
 </file>
@@ -635,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.8356164383561644</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -754,37 +766,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4">
+      <c r="K4">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L4">
-        <v>115</v>
-      </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8321917808219178</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8275862068965517</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>0.9375</v>
@@ -954,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K8">
         <v>0.9333333333333333</v>
@@ -1004,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.9302325581395349</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7307692307692307</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7297297297297297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,16 +1137,16 @@
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.9190600522193212</v>
+        <v>0.9164490861618799</v>
       </c>
       <c r="L11">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M11">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.9166666666666666</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6333333333333333</v>
+        <v>0.64</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.9090909090909091</v>
+        <v>0.8984375</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,16 +1287,16 @@
         <v>81</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.9014084507042254</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L14">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5652173913043478</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.8947368421052632</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1375,16 +1387,16 @@
         <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.8928571428571429</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4496124031007752</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C17">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.8867924528301887</v>
+        <v>0.88125</v>
       </c>
       <c r="L17">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4117647058823529</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.8828125</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L18">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="M18">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3220338983050847</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.8787878787878788</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2933333333333333</v>
+        <v>0.2751677852348993</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.875</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L20">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="M20">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1946308724832215</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.8723404255319149</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,12 +1658,36 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>234</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>0.8620689655172413</v>
@@ -1676,17 +1712,41 @@
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.04557640750670242</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>356</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.8536585365853658</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L23">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="M23">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1698,21 +1758,45 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.005149662053427744</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3091</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.84</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1724,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.8333333333333334</v>
+        <v>0.84</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1750,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.7916666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1776,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.7857142857142857</v>
+        <v>0.8125</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1802,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.7777777777777778</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L28">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1828,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1854,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1880,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.7428571428571429</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1906,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1937,16 +2021,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.7368421052631579</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1958,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.7323529411764705</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L34">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1984,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>91</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2010,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.7083333333333334</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2036,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.7083333333333334</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2062,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.7037037037037037</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2088,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.7016949152542373</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L39">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2114,21 +2198,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.698744769874477</v>
+        <v>0.7</v>
       </c>
       <c r="L40">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2140,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.6956521739130435</v>
+        <v>0.694560669456067</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2166,21 +2250,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.6818181818181818</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2192,21 +2276,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.676923076923077</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L43">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M43">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2218,21 +2302,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.6702127659574468</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L44">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2244,21 +2328,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2270,21 +2354,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.6404494382022472</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L46">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2296,21 +2380,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.6190476190476191</v>
+        <v>0.625</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2322,21 +2406,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.6153846153846154</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2348,21 +2432,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.6142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="L49">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M49">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2374,21 +2458,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.6086956521739131</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2400,12 +2484,12 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K51">
         <v>0.5833333333333334</v>
@@ -2431,16 +2515,16 @@
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.5714285714285714</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2452,21 +2536,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.5714285714285714</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2478,21 +2562,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.5384615384615384</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2504,21 +2588,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.5098039215686274</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2530,21 +2614,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.4657534246575342</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2556,21 +2640,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.4444444444444444</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2582,21 +2666,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.4117647058823529</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2608,21 +2692,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.358974358974359</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L59">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2634,41 +2718,41 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K60">
-        <v>0.3275862068965517</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N60">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>0.234375</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L61">
         <v>15</v>
@@ -2686,33 +2770,59 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K62">
-        <v>0.1944444444444444</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="L62">
+        <v>13</v>
+      </c>
+      <c r="M62">
+        <v>13</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K63">
+        <v>0.21875</v>
+      </c>
+      <c r="L63">
         <v>14</v>
       </c>
-      <c r="M62">
+      <c r="M63">
         <v>14</v>
       </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>58</v>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
